--- a/LiveCorpus/Bilyk.manual1.xlsx
+++ b/LiveCorpus/Bilyk.manual1.xlsx
@@ -7,11 +7,6 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhgOhpOeR+t93eeCc6hxfwN8eWlTg=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
